--- a/biology/Botanique/Phalaenopsis_rundumensis/Phalaenopsis_rundumensis.xlsx
+++ b/biology/Botanique/Phalaenopsis_rundumensis/Phalaenopsis_rundumensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phalaenopsis rundumensis est une espèce d'orchidées originaire de Bornéo[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phalaenopsis rundumensis est une espèce d'orchidées originaire de Bornéo.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes ont généralement 2-3 feuilles de 20-23 cm de long et 7-10 cm de large. Les fleurs de 5,8 cm de haut, au lobe médian elliptique et à l'apex denté du labelle, qui sont produites séquentiellement par groupes de 2 à 3 sur une inflorescence s'allongeant lentement, présentent une coloration florale très variable[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes ont généralement 2-3 feuilles de 20-23 cm de long et 7-10 cm de large. Les fleurs de 5,8 cm de haut, au lobe médian elliptique et à l'apex denté du labelle, qui sont produites séquentiellement par groupes de 2 à 3 sur une inflorescence s'allongeant lentement, présentent une coloration florale très variable.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen type a été collecté dans la région de Rundum à Sabah[2], ce qui se reflète dans l'épithète spécifique rundumensis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen type a été collecté dans la région de Rundum à Sabah, ce qui se reflète dans l'épithète spécifique rundumensis.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers spécimens ont été collectés dans des forêts à des altitudes de 600-800 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers spécimens ont été collectés dans des forêts à des altitudes de 600-800 m.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est un membre du complexe d'espèces comprenant Phalaenopsis kapuasensis, Phalaenopsis gigantea et Phalaenopsis doweryensis. Elle pourrait être intermédiaire entre Phalaenopsis gigantea et Phalaenopsis doweryensis[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est un membre du complexe d'espèces comprenant Phalaenopsis kapuasensis, Phalaenopsis gigantea et Phalaenopsis doweryensis. Elle pourrait être intermédiaire entre Phalaenopsis gigantea et Phalaenopsis doweryensis.
 </t>
         </is>
       </c>
